--- a/final project/presence1.xlsx
+++ b/final project/presence1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiliazorin\Desktop\yesodotnew\Group2_Yesodot\final project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B8427-8E06-4D7E-A084-C3A08A13D1F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="presence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,9 +112,6 @@
     <t>Sun, 16 Dec 2018 21:44:32</t>
   </si>
   <si>
-    <t>jeck</t>
-  </si>
-  <si>
     <t>ka</t>
   </si>
   <si>
@@ -131,17 +134,20 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>jack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,11 +180,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +318,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -578,7 +630,7 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -607,7 +659,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -636,18 +688,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -659,33 +711,33 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/final project/presence1.xlsx
+++ b/final project/presence1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiliazorin\Desktop\yesodotnew\Group2_Yesodot\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\project_new\Group2_Yesodot\final project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B8427-8E06-4D7E-A084-C3A08A13D1F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39F3AC-35C9-4CD5-B3CD-91B909F64899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>index</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Sun, 16 Dec 2018 18:08:16</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Sun, 16 Dec 2018 20:08:16</t>
   </si>
   <si>
@@ -130,13 +127,16 @@
     <t>Wed, 19 Dec 2018 11:07:32</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>jack</t>
+    <t>jeck</t>
+  </si>
+  <si>
+    <t>Sun, 19 Dec 2018 21:31:09</t>
+  </si>
+  <si>
+    <t>Sun, 02 Jan 2019 21:08:16</t>
+  </si>
+  <si>
+    <t>Tue, 01  Jan 2019 11:08:16</t>
   </si>
 </sst>
 </file>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
@@ -572,7 +572,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -580,15 +583,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
@@ -598,7 +601,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -606,15 +612,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
@@ -624,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>37373</v>
@@ -635,15 +641,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5">
         <v>12</v>
       </c>
       <c r="F5">
@@ -653,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>1126</v>
@@ -664,15 +670,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6">
         <v>12</v>
       </c>
       <c r="F6">
@@ -682,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>112</v>
@@ -693,15 +699,15 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7">
         <v>12</v>
       </c>
       <c r="F7">
@@ -711,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>291</v>
@@ -722,22 +728,144 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>37373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>37373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>

--- a/final project/presence1.xlsx
+++ b/final project/presence1.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\project_new\Group2_Yesodot\final project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39F3AC-35C9-4CD5-B3CD-91B909F64899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="presence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>index</t>
   </si>
@@ -58,6 +52,9 @@
     <t>Sun, 16 Dec 2018 18:08:16</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Sun, 16 Dec 2018 20:08:16</t>
   </si>
   <si>
@@ -85,12 +82,6 @@
     <t>Sun, 16 Dec 2018 21:31:09</t>
   </si>
   <si>
-    <t>omri</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
     <t>Sun, 16 Dec 2018 21:08:16</t>
   </si>
   <si>
@@ -109,45 +100,66 @@
     <t>Sun, 16 Dec 2018 21:44:32</t>
   </si>
   <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>Wed, 19 Dec 2018 10:49:50</t>
-  </si>
-  <si>
-    <t>Wed, 19 Dec 2018 10:54:41</t>
-  </si>
-  <si>
-    <t>yonii</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Wed, 19 Dec 2018 11:07:32</t>
-  </si>
-  <si>
-    <t>jeck</t>
-  </si>
-  <si>
-    <t>Sun, 19 Dec 2018 21:31:09</t>
-  </si>
-  <si>
-    <t>Sun, 02 Jan 2019 21:08:16</t>
-  </si>
-  <si>
-    <t>Tue, 01  Jan 2019 11:08:16</t>
+    <t>adir</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>Wed, 02 Jan 2019 11:15:31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Wed, 02 Jan 2019 11:15:52</t>
+  </si>
+  <si>
+    <t>hdd</t>
+  </si>
+  <si>
+    <t>Wed, 02 Jan 2019 11:15:36</t>
+  </si>
+  <si>
+    <t>Wed, 02 Jan 2019 11:17:35</t>
+  </si>
+  <si>
+    <t>michal</t>
+  </si>
+  <si>
+    <t>tsho</t>
+  </si>
+  <si>
+    <t>Wed, 02 Jan 2019 11:15:42</t>
+  </si>
+  <si>
+    <t>Wed, 02 Jan 2019 11:17:29</t>
+  </si>
+  <si>
+    <t>Thu, 03 Jan 2019 13:25:33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,19 +192,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,27 +270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,24 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,16 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -562,7 +528,7 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
@@ -572,26 +538,26 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
@@ -601,26 +567,26 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4">
@@ -630,26 +596,26 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>37373</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
@@ -659,26 +625,26 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>1126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6">
@@ -688,18 +654,18 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -707,81 +673,81 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I9">
-        <v>37373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -792,80 +758,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>37373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>1126</v>
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/final project/presence1.xlsx
+++ b/final project/presence1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>index</t>
   </si>
@@ -55,7 +55,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>Sun, 16 Dec 2018 20:08:16</t>
+    <t>Fri, 04 Jan 2019 11:07:04</t>
   </si>
   <si>
     <t>asaf</t>
@@ -79,15 +79,12 @@
     <t>Sun, 16 Dec 2018 11:08:16</t>
   </si>
   <si>
-    <t>Sun, 16 Dec 2018 21:31:09</t>
+    <t>Fri, 04 Jan 2019 10:44:37</t>
   </si>
   <si>
     <t>Sun, 16 Dec 2018 21:08:16</t>
   </si>
   <si>
-    <t>Sun, 16 Dec 2018 21:27:02</t>
-  </si>
-  <si>
     <t>emilia</t>
   </si>
   <si>
@@ -142,13 +139,13 @@
     <t>Wed, 02 Jan 2019 11:17:29</t>
   </si>
   <si>
-    <t>Thu, 03 Jan 2019 16:08:20</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>Fri, 04 Jan 2019 11:03:40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Fri, 04 Jan 2019 11:07:17</t>
   </si>
 </sst>
 </file>
@@ -480,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="I4">
-        <v>37373</v>
+        <v>-1419</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -625,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>1126</v>
@@ -636,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -654,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>112</v>
@@ -665,25 +662,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
       </c>
       <c r="I7">
         <v>21</v>
@@ -697,22 +694,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
       </c>
       <c r="I8">
         <v>119</v>
@@ -723,25 +720,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
       </c>
       <c r="I9">
         <v>107</v>
@@ -752,22 +749,51 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
